--- a/data/Results/Failthfulness Restuls Easy Questions.xlsx
+++ b/data/Results/Failthfulness Restuls Easy Questions.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8115F9-8C04-4985-B0DC-AA31487D40F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC0138E-5FA8-40F4-9A9C-EA2E53F93267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -227,7 +238,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -277,6 +294,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,6 +1494,24 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="6">
+        <f>AVERAGE(B2:B53)</f>
+        <v>0.97836538461538458</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" ref="C54:E54" si="0">AVERAGE(C2:C53)</f>
+        <v>0.88173076923076921</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83701923076923079</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80625000000000024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
